--- a/data/am_tram4_name.xlsx
+++ b/data/am_tram4_name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\UTNCE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B083D73B-81D7-4C31-81BD-EF86FDD78754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C19703D-244F-485B-A1E6-B2A66703A14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41625" yWindow="1710" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
     <t>Dam</t>
   </si>
   <si>
-    <t>Centraal Station</t>
+    <t>Centraal Station_A</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
